--- a/Projects/231009_LDW/results/Bayesian_231009_LDW.xlsx
+++ b/Projects/231009_LDW/results/Bayesian_231009_LDW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,70 +547,6802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9999835456536386</v>
+        <v>0.9800432484564986</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8164709229321998</v>
+        <v>0.9940411173369198</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82089421338838e-05</v>
+        <v>0.09096197708962317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01187236272945352</v>
+        <v>0.2173586868895435</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4289580735952767</v>
+        <v>0.5697542006436076</v>
       </c>
       <c r="F2" t="n">
-        <v>5.89510875722038e-05</v>
+        <v>0.2618713587977574</v>
       </c>
       <c r="G2" t="n">
-        <v>1.480552373962139e-06</v>
+        <v>0.06700087364272908</v>
       </c>
       <c r="H2" t="n">
-        <v>3.052847083071672e-06</v>
+        <v>0.09749997767978465</v>
       </c>
       <c r="I2" t="n">
-        <v>1.888742755807012e-05</v>
+        <v>0.00515394727664613</v>
       </c>
       <c r="J2" t="n">
-        <v>8.310432770772713e-06</v>
+        <v>0.01042144403827298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9999887967898569</v>
+        <v>0.7784484654204347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2919098568896621</v>
+        <v>0.8417558656616906</v>
       </c>
       <c r="M2" t="n">
-        <v>1.614359897416267e-05</v>
+        <v>0.1206845811882115</v>
       </c>
       <c r="N2" t="n">
-        <v>9.996349725367292e-05</v>
+        <v>0.8006349095142018</v>
       </c>
       <c r="O2" t="n">
-        <v>1.10885459992604e-07</v>
+        <v>0.0002622576176594558</v>
       </c>
       <c r="P2" t="n">
-        <v>1.139686613823658e-05</v>
+        <v>0.03378667198076014</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.001565011208182289</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002535530942038449</v>
+        <v>6.860480485568718e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.127321515251055</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.871569718717836</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.000267616015664357</v>
+        <v>0.1080697157573861</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0364498895105206</v>
+        <v>-0.001624137678715901</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.04977374086052855</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1665363473353602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1802191665012496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.000219124211752143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8773913253833684</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1433016577108548</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03051227035073526</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00044498599132589</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001470340314110864</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004401848721900116</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.03909373183555337</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1585416781642095</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001746167606342405</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.763563067295353e-06</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.005585861201190083</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1280331801912212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00173420580918934</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.293777765827747e-05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.308059606809597</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.857966066949231</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1039593029685303</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.006434093091874461</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9806314602042638</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9901750072428002</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05905269407071664</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4928538629042259</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1830757410711226</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2156582730109432</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1374564476138814</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.002480734163537876</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.172252607389645e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006553556221273163</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2532876052151317</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7748535531049221</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3691000880318102</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9010169482888537</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.005897343035941937</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1002406573264257</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0032239356358355</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.591360878352866e-05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.252733473673664</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.913819282674268</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1040370889051046</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01795039354535245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9969558782071791</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9445319899085938</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05905269407071664</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05397057314206366</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5283181172286644</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2156582730109432</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1374564476138814</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.603075047797338e-05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.722677473494597e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006553556221273163</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2532876052151317</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7748535531049221</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3588056749420891</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8859368075248684</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.005927134553454907</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1000552304409194</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.003731672525924793</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.601863824072773e-08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.315959463276638</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.098503181340945</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.103948115530934</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.009542308115030866</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9975472460513968</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2623283424944944</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02360466085485084</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01236817593109292</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00224376197168908</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.006744162294483644</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0178842736772187</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0002736559679806698</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0004793206024092592</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004752670710643501</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9628710370409137</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9437488607505596</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0007013702868843587</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01767555361461265</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.006383909871019117</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1604425667859737</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.004497327050742926</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.994235507625448e-22</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.029250367423892</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.176227764203134</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1039662400680256</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.008842509244943515</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9790413490702777</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2984294673963567</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03936576662180111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01313250992235043</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1738381475448023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05728921832399896</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0371938262064798</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0006480321411414975</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.076089682624872e-05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001869297966343702</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1741221604870383</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6901136725748389</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0007477610122610333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04707266438522995</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.00264262473735764</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1893683487193541</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.004668236538319733</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.225988452318023e-21</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.017502548148291</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.171370240723107</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1040148555844896</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.006320681557084238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9957012977989705</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9984650279908853</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01584639679904476</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01443377580679349</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7596784652025251</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02172347273817102</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05673366658138557</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0009153873676869419</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0007154711283865599</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.005589620457249833</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8941738186535667</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7803853779306911</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0585051479367984</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9105887793254501</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.002614338747335088</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1015597514865918</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.006549576796753338</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.96391609631297e-05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.562760248649039</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.835893561617993</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1041851537596742</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.006355527352350957</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9800432484564986</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9940411173369198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0265897473266952</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2126960247070439</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5697542006436076</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2618713587977574</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.002864591903030365</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.09749997767978465</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001164777074916076</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01045487737557615</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7784484654204347</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8417558656616906</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1206845811882115</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7255787664975321</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0002622576176594558</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03378667198076014</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.008029789440624872</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.51632861540358e-05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.036150519915935</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.867740612801285</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1079195525643722</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.0001332141417967891</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9567355276399002</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9357616019582427</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04000654676169744</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5292254301627886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1709160640146979</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5571894481292915</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.06157921135978444</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002083222045312408</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001737925525692884</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00170714566778361</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9009256013965526</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9828793059885484</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.2762734614966121</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9126059660655917</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01266931198187116</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.1924067309798144</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.008518013630011294</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.551747165926144e-05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.011435849115506</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.156779244780978</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1041233779850631</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.0180696571320411</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9819267051014324</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9904660129198228</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02284289301103905</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5120446384316748</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.238060588019522</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5399289500578918</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1374003714617218</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001526011733090907</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.001100946342527433</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0006553556221273163</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6639893157416374</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7748535531049221</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3801484995852848</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8125393541332607</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01429006750406659</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1825136820531143</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.008883453881310349</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9.666720051063413e-05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.952929874477667</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.922009771832691</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1040413250569081</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.01450309989498613</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.7991760775833763</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9897098792511461</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04279095509632968</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5164713410973332</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.09579613425675508</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2529548378882523</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02703828040946609</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04063578156800889</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.001576111477348238</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004793008514002951</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2902436601454536</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.7879741765451157</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.09563012201972407</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7996303784301834</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.005249593889460981</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.3247342122249458</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.00926640216836119</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.362926241017358e-05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.456383526233619</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.80990976714213</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1054801172401207</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.007641026253898515</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9559866125835538</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9357616019582427</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.038940843454331</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5191890555787058</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.007960125304493512</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5571894481292915</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0356038203834388</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.002083222045312408</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001716058026429726</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001720758921414471</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9800844053824935</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.984135631680621</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2616804452800505</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9126059660655917</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01072512049886468</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.3460265402588786</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.009790296968239407</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.279822962638217e-05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.576545119296761</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.829235188265116</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.1041230834651903</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.02666543369564773</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.9798489222216212</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9787415258478237</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02499112041120528</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6181742983087217</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.003435520013741781</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1640903363036559</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03600250885957356</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.001985643882320624</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0007694345581287277</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0008083887988940722</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7177769978332944</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7072149495372683</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.621719581565428e-05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7210673962631582</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04048630846018904</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3504686246727425</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.009851015092393849</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.816398711700156e-05</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.305200511009731</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.821902521601942</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1040515746568781</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.005615344740752308</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9033854093547001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9776088129626135</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1262742593531862</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4802292918049272</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.09932941470229656</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5827795771678838</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.003924311209873285</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.003535980930739577</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001176709301316802</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00628808002980131</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2171360970370245</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8796046799927437</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1953357819289113</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8719356775178601</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01461912559062589</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0311126709428966</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0123608351655301</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.472905017237088e-05</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.550550210601959</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.761588852595736</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1043234593667321</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.009696788612971165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9885019775846386</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9945401623798511</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03759894673072352</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4858187576320915</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001734416227356428</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5788419313025801</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05107325421077697</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.003202557489713802</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001572780675900718</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001516703206833088</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2544468151109746</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8688459397197615</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.107393031791016</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8278608397783066</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.02657760903798638</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1923399522603317</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01363915450059104</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8.150121188771989e-05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.085680540132642</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.920635519035812</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1041513074125368</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.0184316619492285</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9675280191502742</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05632061546143879</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07992580196506131</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4963600702022737</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.174278462776826</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2153359734328423</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04228944767049994</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001747595747694411</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001600460117092444</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.587620099078722e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8588624562845393</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1462832814418328</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.009080519318873326</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03923387117426103</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.002303395235420804</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.1738804568550578</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.01426027815364617</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.90706505567643e-05</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.371715044052127</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.838326818148872</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1040456506440656</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.004568059891220794</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.9905471492448742</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9804467661912432</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1447155581915509</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4787055948670096</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2670696902182074</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2274357277866592</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0483732923418335</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04454597272220104</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.002395012178008141</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000609797575576239</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6851012470943425</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7866552571819013</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1050713306939226</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8060335423207222</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.005907081633201477</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1864860290834228</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.01539975788127428</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.412975889199059e-05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.200591232785616</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.653547410338589</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1056580732403951</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.000846342763434163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1893548219755051</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9879867989366422</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.141633246058432</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01674692096075022</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7547796623598895</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.04427998665878038</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03828513546955818</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.079693933188404e-05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0007969658539955268</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.002192966864810093</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.7126107137322963</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1479808641677011</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0002862454597094524</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0008708624075893512</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.005909001828926307</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.08668627723288393</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0173898965205172</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8.412599274298936e-05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.300187788348905</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.12547490805224</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1040322230050496</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.01546765882362403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.9566212949120154</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.981355888829374</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1854871163888172</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5432461582721879</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.09577539766132639</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6528885322860914</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.06290627427870835</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00218333779732837</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.001756780031057423</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00170714566778361</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8848747548919468</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9695339285231396</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2850055798398497</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.7973392646427994</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01266931198187116</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.1263087343994898</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.01741370625899604</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8.355032690066349e-05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.278385219448712</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.08911794497422</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1041277066561983</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.0199520762996258</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9884425411793063</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.99139434474043</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.04534702568728943</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5024056253043644</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3307287859347466</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5806536263079082</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04406359061546182</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01844361554165621</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.002215874888313861</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0005243194630211801</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2359672668892358</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7849441985283788</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3443997206847541</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9000973490517715</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.005874889039597386</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1061860125985157</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.02020918187728168</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.652354989316465e-05</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.095791255838249</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.799952476166894</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.1046949565571134</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.01975324869375454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.991010219611748</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9879352608381344</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01713763404705645</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05548690342315375</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7522446426511449</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09096706181527281</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02220211853208035</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0008984897640414377</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.005646495440887548</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.003241585618545543</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7814016749313443</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8275199215613296</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3268198627553872</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7148904862088079</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.004825200795045759</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.1183448046985755</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.02085258738549265</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7.222444723937686e-05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.07687506015493</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.76665462113202</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.1042790392935657</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01316370047021394</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9576273393779431</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.993710673091075</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08999414620613126</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3949997409303252</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2350763707676755</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2972718652166874</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0700547960651294</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0008640525218546636</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.005112727795518911</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0009980574309078165</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6635758220175165</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8301066399134343</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.285748522535136</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7972228769816948</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01403576989874623</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.1824447131375267</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.02098259954142736</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.565696812676617e-05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.557806310567822</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.978355354250894</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.1041762315037171</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.01241338541621255</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.9025934090091304</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6975486571664041</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1198065922811739</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02549940013145468</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7421888894534349</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2064504787804867</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01305994278261243</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0164955270114796</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.305225355223937e-05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0004678442311848055</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8849374151517768</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1258120008778378</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.03142248030543085</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03672443529114459</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.08652419937317288</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.2803480562957148</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.02241586998558427</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.33402587994611e-05</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.613834833429185</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.882894325444894</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.1045418349042676</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.005084474333687267</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.9975472460513968</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2623283424944944</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02360466085485084</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01282542341536651</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01249300713361984</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02347799372051233</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03674195102936322</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.9746771491339e-05</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0004106613059025538</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0004867914346998623</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9628710370409137</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9437488607505596</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0761550884723671</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.009213443568395818</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0001082411652888211</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.1597132685709196</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.022675874250422</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9.957342458833714e-05</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.349628818412791</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.06152129413357</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1039570692434639</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.006534160613061529</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.9567355276399002</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9641700064644114</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02626819196362393</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5432461582721879</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.09577539766132639</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5599118292323462</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.06355533287607101</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.00218333779732837</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.001737925525692884</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.00170714566778361</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8848747548919468</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9828793059885484</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2850055798398497</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9126059660655917</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01266931198187116</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1281528452784837</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.02328446642398936</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9.297683938001035e-05</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.641817839607265</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.002116242800994</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1041270309566787</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.01428894241407919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.927493987362018</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9809095952950806</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1828085206516951</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01482026794715554</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7739282259179111</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1288856157155346</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.03061189738300599</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0008535825657482497</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0004191769131087597</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001830608935153963</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8825554338268699</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1406937886597172</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.358035741255787</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03301833980470466</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.005913849642659214</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.1262229775720216</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.02358699785551583</v>
+      </c>
+      <c r="R27" t="n">
+        <v>9.297682943811555e-05</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.624127276864267</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.009748606767303</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.104034675075739</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.006538459181948265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.8995879306253638</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9967406034838375</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0585340779848012</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2521153126429421</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5814694596182237</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2369144680566999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.015617552607454</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.001263306958180991</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01490046494169984</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.005728888642017435</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7332586202972762</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8447431088826612</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02242115341884719</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6355978546822865</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01487717557593613</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.1314800272734529</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02380217614706086</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7.472054438634692e-05</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.784103592911446</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.026955490477405</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1047222124438519</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.001159361221082539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9576273393779431</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.952479077322229</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02562205014157817</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3949997409303252</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2350763707676755</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2972718652166874</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006194121622999094</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0008640525218546636</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.001123624851174781</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001038417619394854</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6635758220175165</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.8301066399134343</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.285748522535136</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7221667339650244</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01403576989874623</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.1824447131375267</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.02396295886893705</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.188386651094558e-05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.391023022164195</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.99165207895723</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.1040319658013073</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.01431018614984202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9675280191502742</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05632061546143879</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07992580196506131</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4970176272982009</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.247328931071423</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2153359734328423</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04228944767049994</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.04319924684768783</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001600460117092444</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.587620099078722e-05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8588624562845393</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1462832814418328</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3433987470199211</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03923387117426103</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.002603255836529217</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.1738804568550578</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.02511329717538044</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7.072953289810574e-05</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.064843853702335</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.349229185236638</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.10555872073919</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.0006704858782490275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9957012977989705</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9867953760266609</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0173111048174003</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.03000745377173866</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7596784652025251</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01731917553234055</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05673366658138557</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0009153873676869419</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0007154711283865599</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.003018664014424813</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8941738186535667</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.7803853779306911</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02020408006632324</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9105887793254501</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.002614338747335088</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.118901611343393</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.02572423059713332</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6.318838021111257e-05</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.698370759925964</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.943239172492028</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1040912500303142</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.009154750824973239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9797076519940717</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9950643425432615</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.002635819219156059</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4772082439028731</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2670696902182074</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.04143086229775221</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.04807144587706742</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0001256139959557451</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.006416716268720451</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0003660824193279415</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6842177625561461</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.8269526336276807</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.004542153150321249</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8026113771101332</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.008983834368430744</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.1864638410294231</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.02678309122284132</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.000723988894044e-05</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.435798534427891</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.960233742298442</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.1041737526024215</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.002318344112367171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.9925592973720951</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.700819899557775</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.08764547994918155</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.003177968297267963</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.735835862768071</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.008773085964153604</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0419801172064123</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.000894803122947109</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0001773033026131062</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0007065982886938239</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.903435717209757</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.1368891573718733</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01362737415361137</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.02319756260804771</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.08574981754877221</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.09075631069928364</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.02729525887111303</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.657804897224879e-05</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.162502915284699</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.77389298811093</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1039863133706419</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-0.01268114351140454</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9801132433876981</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9922422184723385</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02757724179102842</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2126960247070439</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5892593732842432</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2540811055243962</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01575287903006768</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.00100304090463487</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.001330109358956885</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01045487737557615</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7784484654204347</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.8251792343473372</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1206845811882115</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7255787664975321</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0002505844631093223</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.03378667198076014</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.02818927799036835</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.728774964038234e-05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.97305144937445</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.724588541132562</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.1043886154893279</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.0001255332705099518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.9884168429349912</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9506493668065025</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.05708741848394813</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2377830147517233</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2476065381441286</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02309396326211366</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01681581866203243</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.002364037904384666</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.001220873272713373</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.005695402404119688</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9218573603628776</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8428367272589196</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.01902828122120217</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6998470030274415</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.07502183762842934</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.13107253928069</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.03061552592346843</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5.712631830827614e-05</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.659351667838657</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.874160995627932</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1042604583277707</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.002129615013208866</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9978167337212328</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.05406400343010379</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05846355481118966</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.04793125646856555</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5802976543275545</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.05327671092991038</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.03801500884955228</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.002555969523244521</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.000741124972924604</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0004498194457086073</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9048497642819009</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1227211314087809</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01750765928188724</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.03803697843004868</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.005913849642659214</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1738239976784183</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.03267670195628115</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0001146571972898333</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9986798743142027</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.36828109183061</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.1040581293431355</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-0.009084065546077068</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.8996303080725022</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3020783744242728</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.008531675818179693</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.002861419667263262</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6660618400813613</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.05467334538136177</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0224663284005065</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0004884125044351717</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0008638352598986394</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0008500363882562039</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9255559346620406</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6331937608234562</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01192516112657218</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.02349719798235799</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.06294126007772706</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.06938239046789202</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.03333486747236428</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6.057736669246407e-05</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.75403869480006</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.579111644610791</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1040018189938491</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.01042793485050016</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1513958849762362</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.997613230025453</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2215823460322237</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01748071623317371</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8774690543476584</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2138549156624541</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04121531216489087</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0002914374316459506</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0005747408784498718</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.002292355635354426</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1874143694178126</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.159712216150928</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.002340655163378613</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.001567055494911197</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01435452221019721</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.1756475270860702</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.03421870712643604</v>
+      </c>
+      <c r="R38" t="n">
+        <v>9.605280818758219e-05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.884317837077273</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.607168251841657</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.1040369464253337</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.007070719988542071</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9997368136916577</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9866196626731483</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.04128969506690539</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5110966433639121</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1696494528115469</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5395675485684397</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03722904434103583</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0004874695016289007</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0001183912852959454</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001872959074018109</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9951067369458695</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.8288824356664778</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.004347923305471915</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8841582498683513</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0006252101447355787</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.1919135321169666</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.03438183681965274</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0001160130819124415</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8626321706666339</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.312350802760477</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.1040119998211159</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.02225495767606871</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9884978342961481</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8336008994047902</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.03672756289633349</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4782571164944052</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1774352748350146</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2232505040749035</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02320330883765131</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.000997654652113937</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.001521485072108288</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.002199325310206804</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6815083545807963</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.8083176938922935</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1047279814329418</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.9184476879483972</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.001591242997849344</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.1459748150561715</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.03440625408783598</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0001165615337544954</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8633498129284569</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.311776717078146</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1040938063394507</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.002012230010159939</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9806314602042638</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9557154778180779</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05905269407071664</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4928538629042259</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.05608300831443974</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2156582730109432</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1374564476138814</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.002480734163537876</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.554946604733154e-05</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0004749378983955801</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2532876052151317</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.7748535531049221</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1006263534521388</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8670521304092091</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.005897343035941937</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0995916185876054</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.03511859247952116</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0001029196960845547</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.920473581976956</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.598473660029413</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1040321156826248</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.003021706015376636</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.9925592973720951</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6995599819666266</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.08764547994918155</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.003177968297267963</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7594112930699857</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.008773085964153604</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04187499998076048</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.002176804570892987</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0001773033026131062</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.001004239951761568</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.903435717209757</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.8139903090973069</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.3946879575482045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01497264475173515</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.08574981754877221</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.1696533509378512</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.03805818989929748</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.308705206020871e-05</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.89039142404983</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.797959800014553</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1040439288593016</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-0.01082164028227361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9675280191502742</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.05632061546143879</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0444546844466485</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4970176272982009</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.247328931071423</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2153359734328423</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.04228944767049994</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.04319924684768783</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03521126733234345</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.587620099078722e-05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8588624562845393</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1462832814418328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.3433987470199211</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1054743653318057</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.002603255836529217</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.1738804568550578</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.03885952547702432</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4.989575826504674e-05</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.972831599278972</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.615726852916112</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.1068055695411552</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.003690532536210621</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.9228075545568954</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9982660264373906</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0210707913365874</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1920833654428118</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5462911118123086</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5250657331869272</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03162015550760103</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04905114691772237</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.049854222336677e-05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.008062602538325057</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9324338952264815</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.8456328242539304</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01574397756039004</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8112304972677453</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.015996523612078</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.08820208974384536</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.04042290394863655</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6.382667612593983e-05</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.759148610766579</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.504369797457571</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.1060114138203164</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.01905631391137047</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.1625960244961578</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9775482929324064</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.141633246058432</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01426600702363752</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.754779049223166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.04367337648037774</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03828513546955818</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9.184984937102823e-06</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0005352226209597846</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.002192966864810093</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.7126107137322963</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1275524612944686</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01071242657020383</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02744318268756096</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.006934938676909946</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.08558506263678864</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.04174801996394416</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0001124941578808637</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5424027180515371</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.122837503301582</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.1040215058740564</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.01526863090597598</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9579529454693744</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1082630102835652</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01240578998255262</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5510410544258889</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1752288322410429</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2204743440190686</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01840613960178761</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.9427600155607e-05</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01402700187876981</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.564771989577575e-05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.7366300474918608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9657284065062105</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3508523224815423</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.05310225732440133</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01252075590965468</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.06624709604136982</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.04228427160502785</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0001110802824810707</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5280136093886074</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.136748674060357</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.1044373688595962</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.002154088780253749</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9175341113171968</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1191809404390299</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1828085206516951</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.02169760267509694</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5770315084193608</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.08224745548904284</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03061189738300599</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0008535825657482497</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0004222671487903245</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8.854660727564861e-05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8810986309204134</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1183089045483904</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01117526706922105</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.03301833980470466</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0007983949125246886</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.1262229775720216</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.04263676399983</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6.655250774247792e-07</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.465643514176688</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.564386967043703</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.1039711870766948</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.008395234322595445</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9819267051014324</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9915533973571121</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00839296275799347</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5101041136149826</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.238060588019522</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.534641230073884</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1374003714617218</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.001526011733090907</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.001121582415804594</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0006553556221273163</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.6639893157416374</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.7732483006308047</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.4158376036841319</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8125393541332607</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01429006750406659</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.1825136820531143</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.04409378829620095</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0001137740572309064</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.1823731809705392</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.008767526212068</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.1040420698375287</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.01473753207916104</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.9574945170541902</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1516569742754932</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.06980926476552253</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5062848295157936</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1830757410711226</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.09256347935833101</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1374564476138814</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.002493200697592921</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.43345913651915e-05</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0006537694182607914</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0840905853835639</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.6290138024081037</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01765187579461477</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01730092835990937</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.005897343035941937</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.1002406573264257</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.045180644527088</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5.502776958503445e-05</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.105880720307117</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.740985426135396</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.104038633977945</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.007749385307672264</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.9715977883842717</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1514159289947518</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1447155581915509</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4792695133918725</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2670696902182074</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3531144608245103</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0483732923418335</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00393378543665732</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.002290482557250019</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0007106431045315767</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6851012470943425</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.787355166186426</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1066348827395642</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.03327096492614029</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.00381009763485002</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.1870932958544458</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.04609883326722959</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0001128064204409497</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.1488624118415831</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.985744824850002</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.1041746336948576</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.000854524221411794</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.8967051639741087</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1082630102835652</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01240578998255262</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.03251832102307334</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1730569465162186</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2270361622807862</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03748590956878942</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0001337972529860524</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0007400769771113555</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7.315321642834639e-05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.7289737998067802</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6320510165247127</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.3414376735343863</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.03849549681705097</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.003709135776329829</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.06538902941944974</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.04737174483239188</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.0001103008850506937</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.5853961692995215</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.151182741832017</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.1039559793657358</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.0005575919128467596</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.9219851588362175</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1272477820799534</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1523522002442268</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4686840898747518</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1024097179562905</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6307672653665388</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0266694831660603</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0006958642593912602</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7.537821323144701e-05</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0001134669859604414</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8701696685805966</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.8428464659092081</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2078706232784521</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01800730332695977</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.004646862570778532</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1262629602393918</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.04852173318762065</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0001000015136698805</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.382098395944074</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.463526943450191</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.1039537083245388</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.003114644085001388</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.9997368136916577</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9866196626731483</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1483179312129698</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5110966433639121</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1696494528115469</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5405670291137384</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03648744225958254</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0004874695016289007</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0001134643657700468</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0006343479725518236</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9951067369458695</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.8288824356664778</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1047901034157944</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8841582498683513</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.06639447097505211</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.1919135321169666</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0487957702000629</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0001105665068747309</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.4673925900648108</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.092615584751371</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.1039665830063487</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-0.01944799489059843</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.9802854773092079</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9558196985731205</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2929246140489411</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6272669532788938</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.05237575500876139</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1765956152817458</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.06411325918355854</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.003489200843582347</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.001015736006819045</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0004840070629542735</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7175576959716876</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.8444957790627713</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.08655041812968345</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.8668132013045238</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.00613917425774773</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6784234092822142</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.04912008916057621</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7.571519737493152e-05</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.937518523392909</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.531619797456315</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.104103601361104</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.04156168207740887</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.8015137698754695</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9806168300559897</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01187756090653869</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5164713410973332</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.09579613425675508</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2529548378882523</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02703828040946609</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01844538053368885</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.001574954371338562</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0002162561030244622</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.290264061807136</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.7847290993957726</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1089402639989879</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.7996303784301834</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.005244373486630793</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.3247342122249458</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.05192699604665075</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.509983865704308e-05</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.977201579312327</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.531126401259314</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.1046601677463831</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.006048186006353606</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.983418916476909</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9972408241569894</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.02620522955589989</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.05742250044061692</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7751070629406586</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5709406647683709</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.02403807376648235</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.001093133193777222</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.000462039046374111</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0003387155162931268</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8751242662901308</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.8080387542044505</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.3114713584223461</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.6643189023731921</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.002081319462852495</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.1864870036022142</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.05284685090041521</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5.948699252310275e-05</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.300997453869799</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.309725148516264</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.1039906065760333</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.01759569366471194</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.9786091932556203</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.244392611022861</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02072149082096718</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01754633050708572</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1732642720206314</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05653641321093754</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03924956703078709</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0007352021438776467</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0004731233812220008</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.583036965119088e-05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.7404673179307701</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.8238569135349252</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.05404374082040687</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01615740632724377</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.02753345869997339</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.1295920421697765</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.05410255110115061</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8.247773514603865e-05</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.889587710478258</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.551444321048564</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.103966819855838</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.006799589409079983</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.9748290795565623</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9975592343797924</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0269733484729872</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04822209177374945</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6662611271621596</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1240498520221726</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03695526336062685</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6.205958586012533e-05</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.005180172877043804</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.001100252029814687</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.7664132252621598</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.7885913760261223</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.3509092199378503</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5880132090252658</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9.497494826280991e-05</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.06636562254934358</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.05530185093795927</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0001070512529944144</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.7875295203305526</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.197580399230105</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.1041530671302268</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.01547312804792154</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.8002103360108314</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9721584584978935</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0803725892028786</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01748071623317371</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8899117814602175</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2151986724283269</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04121531216489087</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0002914374316459506</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.00059425143882606</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.002290531476114416</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9966292244231656</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.6716096554133335</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01167717818502045</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.02007488597773205</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.01435452221019721</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.1692252966471351</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.05942790367014524</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0001061598158969454</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.2691871386894301</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.174833891077071</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.1040374349274054</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.0118930085670572</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.7247403537781706</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3020154595771964</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.08957703631585953</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01466262784914579</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2730636245864354</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3336105329978961</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03625706802255874</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0003666941539493731</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0008795714861533264</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.001178882765494446</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9990884315704557</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.7804550146531412</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.1047771879502042</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02847260793877288</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.06891241135031184</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.1742342513983236</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.06045636408457885</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6.205069746627772e-05</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.796301746488149</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.689895252796319</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.1040099992447655</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.004190136512814802</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.9908654359159322</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9984437422671547</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.05672362674882893</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2272257301631729</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5807704939374967</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2369144680566999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.015617552607454</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.002480490126423526</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0004014419267815697</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.005682695485952407</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.7404673179307701</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.8437227348136997</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.06072223948896585</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.7040150312791732</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.01415321240177734</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.1295920421697765</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.06071763848671209</v>
+      </c>
+      <c r="R61" t="n">
+        <v>8.825229571962638e-05</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.679083352017245</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.506737819311525</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.1042342775156673</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.002932498423889585</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9971696157207444</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9790903448907339</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01574999669757749</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01241847842730744</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7570734271737508</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5519982485296608</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.070593161638552</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.54041228230611e-05</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.005180172877043804</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.003506293005096194</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7715759484194222</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.6789109340089139</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.3443402441973974</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.6046638799131461</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.002629536268846253</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.06744061073529209</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.06093379581494902</v>
+      </c>
+      <c r="R62" t="n">
+        <v>8.017089662283541e-05</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.454339857010214</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.325559711111822</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.1042404917307838</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-0.01454222837164726</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.9704237987540552</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9879867989366422</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1400382605893916</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.01678030494529713</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7547960720472014</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.044260984882691</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03711722488105922</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0009563404148698515</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0007969658539955268</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.002192966864810093</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8954947701325338</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.1462654439178487</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0002862454597094524</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0008708624075893512</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.006000305168839727</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.1856466334710747</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.06316983971143532</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0001054100765634714</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.5049188601325454</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.184791007698948</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.1040655003582967</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.01133141675540968</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.9276082200897786</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9637237129246271</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.009464373936396611</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01482026794715554</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7739282259179111</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1288856157155346</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03006086148055136</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0008535825657482497</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0004191769131087597</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.001391495274034257</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8825554338268699</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.1462721458955435</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.358035741255787</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.03301833980470466</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.005913849642659214</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.1280670884510155</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.06331399413522344</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.0001010221891900317</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.3632768586716557</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.17756032190178</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.1040186562786382</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.006498371633243207</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.9956340745933829</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9967406034838375</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0585340779848012</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2428052548638789</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5814694596182237</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2369144680566999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.015617552607454</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.002475304271905996</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01490046494169984</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.005728888642017435</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9051378326604584</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8444812652837187</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.02242115341884719</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.6355978546822865</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.01487717557593613</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.154261119071386</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.06509907856329282</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9.811230042714709e-05</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.04263429793497708</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.162164691192416</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.1047667167096102</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.004331573380378966</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.9971696157207444</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9442888049532216</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.02727456679089332</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.04822209177374945</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.547423389044996</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5350184255959872</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0575374489045715</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.205958586012533e-05</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.001124817484245618</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0003037283009043887</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.7715759484194222</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.6896797801594688</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1709543089233106</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.5961726434359322</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0003146630947308757</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.06642709709057799</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.06802101260272353</v>
+      </c>
+      <c r="R66" t="n">
+        <v>8.207842211520683e-06</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.176683732384923</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.741695150322215</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.103975915739741</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.01091482467416924</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.982962131594696</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9377047838674337</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.02360466085485084</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.05976575624917008</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5880813347117307</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.3553988460281686</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04937003363168069</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0009856060946476014</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.00224411522873546</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0006091589627542385</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.7382880093736895</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.9334935053901265</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.001975556503317655</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.02719142399318511</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.01912919036479028</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.1526433608826369</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.06904371042181282</v>
+      </c>
+      <c r="R67" t="n">
+        <v>9.140927604157865e-05</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.31604050056862</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.390931791993665</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.1040616386013891</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.008391300471633154</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.9578913305730684</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.151611654539531</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.02360466085485084</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4775699502380378</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.00340808358958776</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.3553988460281686</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04937003363168069</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.704097673858523e-05</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.00224411522873546</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0006091589627542385</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.7306245549981559</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9334935053901265</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.001292350384811541</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.02339254832359021</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.01912919036479028</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.1872238668208532</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.07097547847174381</v>
+      </c>
+      <c r="R68" t="n">
+        <v>9.064955705817679e-05</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1.353268055989582</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.401998315169138</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.1040269870276676</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-0.003663253701081462</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.9212447311902269</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.244392611022861</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.02072149082096718</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0176785199295454</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.07924725607008995</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.007850893333939971</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01447669077206902</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.692477983690141e-05</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0004807188317377055</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.583036965119088e-05</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.7404673179307701</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.8390310681643648</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.05415020830395168</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01615740632724377</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.02753345869997339</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.1295920421697765</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.07160298410633968</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7.725437504048961e-05</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.116498590066516</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.027219790808331</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.1039409008734434</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.005365325605295925</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.9908654359159322</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9140067586514322</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0585340779848012</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.2423244804943393</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5807704939374967</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.2369144680566999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.015617552607454</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.002480490126423526</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00332097100404039</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.003116159835871339</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9051378326604584</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.8444812652837187</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.02242115341884719</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.705643958002895</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.01461239977726853</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.154261119071386</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.07231952704889871</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7.366507967977507e-05</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8783136881234982</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.971928933544319</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.1042472832665304</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-0.00549489985836419</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.9213986960551702</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.244392611022861</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.03870100766700287</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0176785199295454</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1795585873235535</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.007850893333939971</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01854077143961387</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.002624108494971082</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.030759855898564</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.005682695485952407</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9541015601949495</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8390310681643648</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.06072223948896585</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.01615740632724377</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.02760356425500686</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.1295920421697765</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0755437471241157</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4.577126069447623e-05</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3.666334171331415</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.393609661641776</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1053513244707543</v>
+      </c>
+      <c r="V71" t="n">
+        <v>-0.005196352638819082</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.9800276772926081</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9940411173369198</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0265897473266952</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2126960247070439</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5697542006436076</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.2540811055243962</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0160441095031858</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.00100304090463487</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.001164777074916076</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01045487737557615</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.7784484654204347</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8272336743780232</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.1206845811882115</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.7255787664975321</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0002488670264758144</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.03378667198076014</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.07691270930049046</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.25028348415144e-05</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3.153292161295803</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.822120157223438</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.1043825539311088</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0002121497844025377</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.9715977883842717</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1479721494076598</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1447155581915509</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4792695133918725</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1735633105170381</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.3531144608245103</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04208790033280435</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.001767477019865038</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.002290482557250019</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.610111728380341e-05</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.6829501648299086</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.1416983501564988</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.002786948021584398</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.03327096492614029</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.00381009763485002</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.1736143873425393</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.07847455827805855</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4.542291765096702e-05</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.263183018292775</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.207820890033219</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.1040708828246207</v>
+      </c>
+      <c r="V73" t="n">
+        <v>-0.004614709793184936</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.9997390516782981</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.2861252134107209</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.147246766366928</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5089486799033335</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.574804358190925</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5405670291137384</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03648744225958254</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0004874695016289007</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0001134643657700468</v>
+      </c>
+      <c r="J74" t="n">
+        <v>9.305508928604154e-05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9951067369458695</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.7112943074681526</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.2006400442248886</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1079288038039393</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0661536374453181</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.1919135321169666</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.08125359408481714</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.102126013137071e-05</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.894228193851209</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.652737264729851</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.1039467422356529</v>
+      </c>
+      <c r="V74" t="n">
+        <v>-0.002799487331158042</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.9216767426126907</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.2984294673963567</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.03936576662180111</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.01326469934481012</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.07982113180594239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00861280035897868</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.05948470548118771</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7.436449151475332e-07</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.880051743688641e-05</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.001869297966343702</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1654662560714903</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.7052878271857126</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.00149094967962126</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.04707266438522995</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.00264262473735764</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.1893683487193541</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.08145568149383814</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5.216500177671034e-05</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.148617281832597</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.581181778513212</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.1039915339281353</v>
+      </c>
+      <c r="V75" t="n">
+        <v>-0.005322458047131336</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.9909326591156757</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9974497575654366</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.07878641183178267</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.04022644776275207</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.576470364952667</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.576744279454138</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.1809071882745341</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.002655283848610104</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0007092012682240476</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.002950767624426075</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9330933429356716</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.781957733879088</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.3621132366557377</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.728710282857892</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.002104682328862444</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.102428440272316</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.08216309474747861</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5.057663849728769e-05</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2.44183151041974</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.628546883965868</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.104152077173377</v>
+      </c>
+      <c r="V76" t="n">
+        <v>-0.01776475770656709</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.9798712989458463</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.994231780186082</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.02755213227436398</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4488266328984017</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.2128607678124015</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4949986114135662</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1288559822076821</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.001250979499348612</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.000868307746696096</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0006905694657525965</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.7268713288701129</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.8272806354018363</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.09208910284598598</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.8665644884165177</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.01405438627526391</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.06592564800228889</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.08334250524925749</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3.105021521125791e-05</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.646700101187292</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.7117573476648</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.1040240893221969</v>
+      </c>
+      <c r="V77" t="n">
+        <v>-0.01330553624902046</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.9824483017069655</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8481301102613188</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.009321726500097403</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.1707905524497138</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1730569465162186</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.03944910126121402</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0364883003869999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0005008639483952305</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.001197858002672558</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.006300862690440242</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9692490870151822</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.8273457291847012</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.00225546899083731</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.6809540548851317</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.07345486678076663</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.07025932129902537</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.08399419710789179</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4.188225858983311e-05</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.380952280924523</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.672167937990693</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.1042136080801567</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.002221526459921602</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.8978406958795465</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9479992521210878</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.07630828510251728</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2377830147517233</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2476065381441286</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02309396326211366</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03634726228620658</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.003184858571563027</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.001565708718401792</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.00632073469905409</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9210048949843859</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.9135411130157902</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.1118959356797438</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.8304966499952663</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.07230170499415488</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.2029682952931079</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.08485039109251577</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.181753846120242e-05</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2.503872966667814</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.695246870924393</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.1043259922376379</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.01257835292695014</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.9957012977989705</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9984650279908853</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0155711461262637</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01443377580679349</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5815114881946093</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0233189537018581</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.05673366658138557</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.001011301321739549</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0007154711283865599</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.005589620457249833</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9072149538280697</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.7819416857896646</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.3621132366557377</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.7235505583110508</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.002614338747335088</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.102428440272316</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.08758829755790425</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3.170203790722664e-05</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2.206331181434564</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.660721536625161</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.1041886102819087</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.01919884207845494</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.9841589874953811</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9972408241569894</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.02731045383623863</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.05742250044061692</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7567261573909743</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.05643337478439236</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02403807376648235</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.001088082374038763</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0004718278804098075</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.001925662375899158</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.879263787287713</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.7679362158721897</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3114396949186619</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.9105887793254501</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.002081319462852495</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.09525919767251706</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.08897998389505438</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.967934240637597e-05</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2.199937918097258</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.648373646913072</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.104048701931627</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.01081881135134082</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.04977374086052855</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1287620707691719</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1802191665012496</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.000219124211752143</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5902030972202487</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1210800873904846</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.03051227035073526</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.00044498599132589</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0001470340314110864</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9.577960559800555e-05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.03909373183555337</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.1585416781642095</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.001220218756749622</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0005485504284810996</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.005585861201190083</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.1259677217202169</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.09016823859043203</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4.244623652984538e-06</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2.261824123156884</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.453252142735465</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.1039467215730022</v>
+      </c>
+      <c r="V82" t="n">
+        <v>-0.006832224741209349</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.9199975739801524</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.128177728673079</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1828085206516951</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.02192027041608222</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5770315084193608</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1213817712479903</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03061189738300599</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0008535825657482497</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0004222671487903245</v>
+      </c>
+      <c r="J83" t="n">
+        <v>9.384698455508684e-05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.8813555557319126</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.1406937886597172</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.2034549476470163</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.03301833980470466</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.005913849642659214</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.1262229775720216</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.09205966726806522</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4.884182687532456e-05</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2.165114664577951</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.591710754201472</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.1039713588542541</v>
+      </c>
+      <c r="V83" t="n">
+        <v>-0.002841388713000048</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.9975472460513968</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9949472447316685</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.04527112190950942</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.4977279138990099</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.00224376197168908</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.006744162294483644</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0178842736772187</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0002736559679806698</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.002200125183406878</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0005237559989493386</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9799091436144038</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.9404385279178215</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0007013702868843587</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9259204427786192</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.006383909871019117</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.1666340773026387</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.09220663348477913</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6.613499880799862e-06</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2.225050338143316</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.530103918817176</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.1040309150900963</v>
+      </c>
+      <c r="V84" t="n">
+        <v>-0.005970817887933723</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.9806314602042638</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9557154778180779</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.05905269407071664</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.4670041903992387</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.05608300831443974</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.2156582730109432</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.1374564476138814</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0005986617778181848</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7.554946604733154e-05</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0004749378983955801</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.2532876052151317</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.7748535531049221</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.1006263534521388</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.8670521304092091</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.005897343035941937</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0995916185876054</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.09363513922511922</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.586010062475106e-06</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.550062191093357</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.66093376826106</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.1039634715812216</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.003021705979557969</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9943935337385084</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9938947048295061</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.03741545884313537</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01599463992253447</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7507981361717827</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.04437466581340922</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.03628992466325875</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0009306549347135782</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.001224881148562558</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.001859365918294699</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.8993242552041423</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.8472563817809096</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.36007747229622</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.8543041336379493</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.004460139160550919</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.1906829346766521</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.09419912113122844</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3.657511416636428e-05</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.909107464468097</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.581638868845701</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.1040680511162733</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.01239341163774357</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9840502709645186</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9994077279540365</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.02613070285352267</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01066799654075072</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.5898328724501075</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.04801123317939865</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.07601367897160191</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0009096630628189701</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0001792391210641191</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6.661892594808077e-05</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.8791283365318425</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.7687431660269524</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.3144805910199995</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.8662336309315991</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.006616896953376092</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.09563471284950403</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.0962784693047722</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5.110893778735195e-05</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.864147110324591</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.572938914399202</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.1039636054258549</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.01670185052815995</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.05037517319701073</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1665363473353602</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.09011086166794113</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.000219124211752143</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8758638011881783</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.144645414476735</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03051227035073526</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.00044498599132589</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0001665465562862992</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0007044039409636195</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0413655509310725</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.1342243630426875</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.001746167606342405</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.222504942737198e-05</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.005585861201190083</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.1281908312086076</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.09702462797001872</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4.667537091734194e-05</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.774430041821352</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.545589031702619</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.1039696663672784</v>
+      </c>
+      <c r="V88" t="n">
+        <v>-0.006376560833992302</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.9570037738171294</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.2626845688169572</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.2887000290448477</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.501829782015042</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.2670696902182074</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.005506112919768486</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04202348175049111</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0002598963300077129</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.002570996918682658</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001051926691251266</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9165938561771371</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8175479007138381</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.08520033485690912</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.02341395997865769</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.1028662901652836</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.08656789282847827</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.09824757869852981</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.539923686009845e-05</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.633575725184068</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.581483475982722</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.1040631660955565</v>
+      </c>
+      <c r="V89" t="n">
+        <v>-0.006707956561543531</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.7991760775833763</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8490497501057974</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.04279095509632968</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5164713410973332</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.09579613425675508</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.2529548378882523</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.02703828040946609</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0007463735565396666</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.001576111477348238</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0003420433472136949</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.8860980172026798</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8249628818599432</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.09769056428699407</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.6700456993113477</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.005249593889460981</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.1550779035422921</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.09973502283361928</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3.884141174198631e-05</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.727380604036542</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.343581102700782</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.1040187719278029</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.01870439271780765</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9798712989458463</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.994231780186082</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1572399178273999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4488266328984017</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2385353613306512</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.4711011213526999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.1288559822076821</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.001149781482219666</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.006557972862374115</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0007356344336322328</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.7268713288701129</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.8272806354018363</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.2921513996906376</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.8665644884165177</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.01405438627526391</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.6784234092822142</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.1058773736772985</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.462162422371724e-05</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.461341363642023</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.523713020837747</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.1042299303406657</v>
+      </c>
+      <c r="V91" t="n">
+        <v>-0.04104103628906779</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.04977374086052855</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1628747918742589</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1805524345995133</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.04204815359265987</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.08886066584606483</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.118501838919653</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0305917629721171</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.00044498599132589</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.001155515824851069</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0007044039409636195</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.06777872985331118</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.6387286939107912</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.02137654029565047</v>
+      </c>
+      <c r="N92" t="n">
+        <v>9.763563067295353e-06</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.005708450871014477</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.1267676455431134</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.1065057739513505</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.939901125183085e-05</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.4848031660447</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.489198678222891</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.1040057732700885</v>
+      </c>
+      <c r="V92" t="n">
+        <v>-0.0079389725399856</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.9794482036317341</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9831949556376409</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.02687354322838775</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.03100408792281203</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7503688267283095</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.08590087386975119</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.1405763223075872</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0008752081475158731</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.00123539820089067</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.002714225593648915</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.689817813415279</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.8254429141024816</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.3315367792738938</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.6716575284404029</v>
+      </c>
+      <c r="O93" t="n">
+        <v>4.132323766648655e-05</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.06077182569452452</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.1077909658101653</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.670526668028981e-05</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.187605519020249</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.478805860215658</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.1040976471253098</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.01472242460799638</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.9228075545568954</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9650579008174955</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0210707913365874</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1907981592256972</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5462911118123086</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2268777204247407</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03162015550760103</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0006457491621691754</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.001604383542733269</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.96572890378521e-05</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.8815596964776162</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.8462715494570048</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.01596894561091139</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.007344138633489983</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.01458934171543912</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.08814413583833716</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.1088219638125982</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3.416031260097099e-05</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.056459096306658</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.42597320522114</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.1040057649433487</v>
+      </c>
+      <c r="V94" t="n">
+        <v>-0.009315903196627458</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.9578756726226013</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8336008994047902</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.03723255800544854</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.394154893854742</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1807536608256806</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.2232505040749035</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.02391419102916221</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0004926290247773174</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.001681341359461998</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.002199325310206804</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.6627324793494048</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.807957963408956</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.1047279814329418</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.8016842559638794</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.00200142498975019</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.1480886724475403</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.110624105893283</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5.243133700945283e-05</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.240488225237607</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.410172957738027</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.1040812058232606</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.005135903325941042</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9987500834914959</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9904204251516183</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1522349250668455</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4559814346394253</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.06051846680116149</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6745182074391077</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.006526199394504256</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0005132454531310565</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0001162171800218359</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.002993803143645444</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.7417210039106503</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.8336797863861483</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.05759629002143749</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.804341594070445</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.01415846453440097</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.1320118769621067</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.1144340255859759</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4.968750484519694e-05</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.9725993483108407</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.384347117983751</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.1040537886444871</v>
+      </c>
+      <c r="V96" t="n">
+        <v>-0.02344028103132027</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.9167659552565118</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.2623283424944944</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.02360466085485084</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.01236817593109292</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.003309823517737905</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.006744162294483644</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01789530113736694</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.807052461895361e-05</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.0004793206024092592</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0004663909434245687</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.7303430808419487</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.9437488607505596</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0007013702868843587</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.01767555361461265</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.006383909871019117</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.1590893032792144</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.1154581118497628</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3.718043175580681e-05</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.7276676246273177</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.34048418594891</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.1039573557449946</v>
+      </c>
+      <c r="V97" t="n">
+        <v>-0.006736213298361035</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.9910425616928494</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1082630102835652</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01240578998255262</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.01443481782458139</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1730569465162186</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2204743440190686</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01762940631836321</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0002749705679063978</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.01497117358074691</v>
+      </c>
+      <c r="J98" t="n">
+        <v>7.441060817199932e-05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9692490870151822</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.6320510165247127</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.3508523224815423</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.05310225732440133</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.005942318391754096</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.06760035795215801</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.1172299887539719</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4.539926018514136e-05</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.2617789985585244</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.213360891165934</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.104480778313262</v>
+      </c>
+      <c r="V98" t="n">
+        <v>-0.004009104028380266</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.8002103360108314</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9721584584978935</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0803725892028786</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.01748071623317371</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8899117814602175</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.2151986724283269</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.04121531216489087</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0002914374316459506</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.00059425143882606</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.002290531476114416</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9966292244231656</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.715635308715626</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.01167717818502045</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.02007488597773205</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.01435452221019721</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.1692252966471351</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.1181291919864695</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4.440856754917556e-05</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.37262131514083</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.247338189288712</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.1040374330770187</v>
+      </c>
+      <c r="V99" t="n">
+        <v>-0.01189300782311153</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.900985732352365</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3020783744242728</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.125703773321391</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.02124105126302962</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2730636245864354</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3281748586955816</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02236543500025061</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0004884125044351717</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0008838998230943461</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.006300862690440242</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9990884315704557</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.7834039713049545</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.1051661721259719</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.02847260793877288</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.004744376192205666</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.1865205282876015</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.1186679545921094</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4.757591818124209e-05</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.08578553502648864</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.095974798285354</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.1042016305274672</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.0002486112309942751</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9957012977989705</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9984650279908853</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.02720820946440822</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.01443377580679349</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7596784652025251</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.02493798094442883</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05673366658138557</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0009168482656248541</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0007215023166232996</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.005589620457249833</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.8941738186535667</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.7804801076955363</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.0585051479367984</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9105771353365704</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.002614346698377956</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.1015597514865918</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.1230037676632667</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4.274977133668541e-05</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.2418396244564577</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.304053204494238</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1041854307008739</v>
+      </c>
+      <c r="V101" t="n">
+        <v>-0.006402071243717788</v>
       </c>
     </row>
   </sheetData>
